--- a/Code/Results/Cases/Case_8_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9142516953409654</v>
+        <v>0.905597422850235</v>
       </c>
       <c r="C2">
-        <v>0.1534116714601481</v>
+        <v>0.1665125595638912</v>
       </c>
       <c r="D2">
-        <v>0.08464992920456638</v>
+        <v>0.08400022887343539</v>
       </c>
       <c r="E2">
-        <v>0.0565339331359116</v>
+        <v>0.05841238119340453</v>
       </c>
       <c r="F2">
-        <v>0.606217088257587</v>
+        <v>0.5267866884847692</v>
       </c>
       <c r="G2">
-        <v>0.0008240001228541485</v>
+        <v>0.01718061174186813</v>
       </c>
       <c r="H2">
-        <v>0.009042621910862012</v>
+        <v>0.00576807892241038</v>
       </c>
       <c r="I2">
-        <v>0.01016799510690225</v>
+        <v>0.005547082697997752</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4891047138117592</v>
+        <v>0.4104393879553108</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1852436362553895</v>
       </c>
       <c r="M2">
-        <v>0.8587038965367526</v>
+        <v>0.1259606602926322</v>
       </c>
       <c r="N2">
-        <v>0.1609112327715181</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2019622196395403</v>
+        <v>0.8997645434793355</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1731495435012604</v>
       </c>
       <c r="Q2">
-        <v>1.951736712234904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2018269694504546</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.650839318744048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7962676832836451</v>
+        <v>0.7911440551796147</v>
       </c>
       <c r="C3">
-        <v>0.1436129540615312</v>
+        <v>0.1542058949682499</v>
       </c>
       <c r="D3">
-        <v>0.07750854555283127</v>
+        <v>0.07552180946105835</v>
       </c>
       <c r="E3">
-        <v>0.05319430508125578</v>
+        <v>0.05591980309777078</v>
       </c>
       <c r="F3">
-        <v>0.5847216528961567</v>
+        <v>0.508089950606589</v>
       </c>
       <c r="G3">
-        <v>0.0008267715377359708</v>
+        <v>0.02064680066454716</v>
       </c>
       <c r="H3">
-        <v>0.01138260701163351</v>
+        <v>0.007418852817698551</v>
       </c>
       <c r="I3">
-        <v>0.01266774999981557</v>
+        <v>0.007030543885603091</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4882245106394123</v>
+        <v>0.411569792683693</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1895708183062581</v>
       </c>
       <c r="M3">
-        <v>0.7518011213531821</v>
+        <v>0.1240815145909053</v>
       </c>
       <c r="N3">
-        <v>0.1434295835282882</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1763203251759577</v>
+        <v>0.7887638211532675</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1552850703249078</v>
       </c>
       <c r="Q3">
-        <v>1.922686963259181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1762837043637582</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.627701055304001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7236141544829024</v>
+        <v>0.720543946118454</v>
       </c>
       <c r="C4">
-        <v>0.1376219991135486</v>
+        <v>0.1467459678577185</v>
       </c>
       <c r="D4">
-        <v>0.07312046747053813</v>
+        <v>0.07033100077901366</v>
       </c>
       <c r="E4">
-        <v>0.05111221488772699</v>
+        <v>0.05435689662473386</v>
       </c>
       <c r="F4">
-        <v>0.5719645943203915</v>
+        <v>0.4968299387671351</v>
       </c>
       <c r="G4">
-        <v>0.0008285353181510107</v>
+        <v>0.0230162437148157</v>
       </c>
       <c r="H4">
-        <v>0.01301287142092759</v>
+        <v>0.008578963882533389</v>
       </c>
       <c r="I4">
-        <v>0.01443971412545997</v>
+        <v>0.008113735783760845</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4878765062013812</v>
+        <v>0.4123268245584093</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1922687550437203</v>
       </c>
       <c r="M4">
-        <v>0.6861656470808271</v>
+        <v>0.123441819035591</v>
       </c>
       <c r="N4">
-        <v>0.1327101617727422</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1605592192791505</v>
+        <v>0.7206155194650421</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1443433472250106</v>
       </c>
       <c r="Q4">
-        <v>1.906132147831528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.160568710045041</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.614052740925885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6936642056467406</v>
+        <v>0.691413458330544</v>
       </c>
       <c r="C5">
-        <v>0.1353654008578218</v>
+        <v>0.1439370311907098</v>
       </c>
       <c r="D5">
-        <v>0.0713996937551471</v>
+        <v>0.06828961680744072</v>
       </c>
       <c r="E5">
-        <v>0.05021171184129258</v>
+        <v>0.05367121815248943</v>
       </c>
       <c r="F5">
-        <v>0.5662905242446286</v>
+        <v>0.4917555792238772</v>
       </c>
       <c r="G5">
-        <v>0.0008292747477916739</v>
+        <v>0.02404749306162679</v>
       </c>
       <c r="H5">
-        <v>0.01372897321859312</v>
+        <v>0.009090836419099427</v>
       </c>
       <c r="I5">
-        <v>0.01530771865098046</v>
+        <v>0.008693476246438792</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4872791438496051</v>
+        <v>0.4122062186610407</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1931615732452414</v>
       </c>
       <c r="M5">
-        <v>0.6597255083396476</v>
+        <v>0.1231936518079131</v>
       </c>
       <c r="N5">
-        <v>0.1283972543441649</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1541150544809646</v>
+        <v>0.6931467712513637</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1399418613046421</v>
       </c>
       <c r="Q5">
-        <v>1.897785288834058</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1541405570125285</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.606882257930607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6883362245835087</v>
+        <v>0.6862321943609118</v>
       </c>
       <c r="C6">
-        <v>0.1352132156422385</v>
+        <v>0.1437291410916046</v>
       </c>
       <c r="D6">
-        <v>0.07119824787992002</v>
+        <v>0.06803763366038851</v>
       </c>
       <c r="E6">
-        <v>0.05000808839795745</v>
+        <v>0.05350738248443498</v>
       </c>
       <c r="F6">
-        <v>0.5646435460785568</v>
+        <v>0.4902588762875979</v>
       </c>
       <c r="G6">
-        <v>0.0008294044325031729</v>
+        <v>0.02423085772603861</v>
       </c>
       <c r="H6">
-        <v>0.01385647650554303</v>
+        <v>0.009182264254258304</v>
       </c>
       <c r="I6">
-        <v>0.01557035953668073</v>
+        <v>0.008918833222442579</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4865691190223771</v>
+        <v>0.4116452719947574</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1930465676135142</v>
       </c>
       <c r="M6">
-        <v>0.6557164025743134</v>
+        <v>0.1230173855571426</v>
       </c>
       <c r="N6">
-        <v>0.1277460404507238</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.153024840391641</v>
+        <v>0.6889585447477344</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1392744290465089</v>
       </c>
       <c r="Q6">
-        <v>1.894082439071141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1530534818049496</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.603572605066731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7222472761950769</v>
+        <v>0.7196504439404237</v>
       </c>
       <c r="C7">
-        <v>0.1382007745271849</v>
+        <v>0.1469647110218659</v>
       </c>
       <c r="D7">
-        <v>0.07332885619442919</v>
+        <v>0.07097642305616603</v>
       </c>
       <c r="E7">
-        <v>0.05095382676100435</v>
+        <v>0.05424376231811046</v>
       </c>
       <c r="F7">
-        <v>0.5699469412822538</v>
+        <v>0.4917865805672719</v>
       </c>
       <c r="G7">
-        <v>0.0008285611617500077</v>
+        <v>0.02347619276791835</v>
       </c>
       <c r="H7">
-        <v>0.0130373453637067</v>
+        <v>0.008610739092290889</v>
       </c>
       <c r="I7">
-        <v>0.01474849819268531</v>
+        <v>0.008465713291951005</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4861953417286138</v>
+        <v>0.4090046773918274</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.190708674496495</v>
       </c>
       <c r="M7">
-        <v>0.6868547563276621</v>
+        <v>0.1225182460360053</v>
       </c>
       <c r="N7">
-        <v>0.1328296972436931</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1604178988721827</v>
+        <v>0.7206141537031527</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1443289988988425</v>
       </c>
       <c r="Q7">
-        <v>1.899649671557626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.160452586889015</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.597914074708584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8723231492398327</v>
+        <v>0.8663933118446323</v>
       </c>
       <c r="C8">
-        <v>0.1508465796255578</v>
+        <v>0.1616880819167008</v>
       </c>
       <c r="D8">
-        <v>0.08249963656884773</v>
+        <v>0.08288167251076572</v>
       </c>
       <c r="E8">
-        <v>0.05519593947389545</v>
+        <v>0.05749132059928286</v>
       </c>
       <c r="F8">
-        <v>0.5961520167190102</v>
+        <v>0.5074973862043137</v>
       </c>
       <c r="G8">
-        <v>0.0008249627228089303</v>
+        <v>0.02041775613237196</v>
       </c>
       <c r="H8">
-        <v>0.009824435823639219</v>
+        <v>0.006354826201488889</v>
       </c>
       <c r="I8">
-        <v>0.01133621633209003</v>
+        <v>0.006463604610226881</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4865653309614757</v>
+        <v>0.4029426265739424</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1832935505582931</v>
       </c>
       <c r="M8">
-        <v>0.8232373410295679</v>
+        <v>0.1227303981831014</v>
       </c>
       <c r="N8">
-        <v>0.1551180062178332</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1930504949740879</v>
+        <v>0.8606651632485409</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1667920059627832</v>
       </c>
       <c r="Q8">
-        <v>1.933073637571184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1930306588082864</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.601766564833113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.16685954382416</v>
+        <v>1.151787214465969</v>
       </c>
       <c r="C9">
-        <v>0.174836160860103</v>
+        <v>0.1917279243279353</v>
       </c>
       <c r="D9">
-        <v>0.1000615130473435</v>
+        <v>0.104345716729064</v>
       </c>
       <c r="E9">
-        <v>0.06353684059837938</v>
+        <v>0.06373073534499163</v>
       </c>
       <c r="F9">
-        <v>0.6547244753593375</v>
+        <v>0.554854468696945</v>
       </c>
       <c r="G9">
-        <v>0.0008183645097606575</v>
+        <v>0.01340812582841089</v>
       </c>
       <c r="H9">
-        <v>0.005116711909465999</v>
+        <v>0.003086158354294377</v>
       </c>
       <c r="I9">
-        <v>0.006164531984618193</v>
+        <v>0.003400844577554629</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.491843376817819</v>
+        <v>0.400806899614178</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1733498256646762</v>
       </c>
       <c r="M9">
-        <v>1.089089455558593</v>
+        <v>0.1298843707790525</v>
       </c>
       <c r="N9">
-        <v>0.1986727358396791</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2570572804032913</v>
+        <v>1.136060943868245</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.211250504646884</v>
       </c>
       <c r="Q9">
-        <v>2.020654714833199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2567125888424222</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.661172160825402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.380857099752859</v>
+        <v>1.361544135488714</v>
       </c>
       <c r="C10">
-        <v>0.1953217217836567</v>
+        <v>0.21434611429423</v>
       </c>
       <c r="D10">
-        <v>0.1143526389374472</v>
+        <v>0.1244113624650396</v>
       </c>
       <c r="E10">
-        <v>0.06658176722089948</v>
+        <v>0.065699619231113</v>
       </c>
       <c r="F10">
-        <v>0.690074965140056</v>
+        <v>0.5648355080215595</v>
       </c>
       <c r="G10">
-        <v>0.0008138797655531618</v>
+        <v>0.01750731189308574</v>
       </c>
       <c r="H10">
-        <v>0.003067436770420429</v>
+        <v>0.001817595232546321</v>
       </c>
       <c r="I10">
-        <v>0.003883697290726573</v>
+        <v>0.002330460625802999</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4886841896714458</v>
+        <v>0.3838899078583573</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1607800260839163</v>
       </c>
       <c r="M10">
-        <v>1.290851699058805</v>
+        <v>0.1313057671776328</v>
       </c>
       <c r="N10">
-        <v>0.219520943293162</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2985779523167622</v>
+        <v>1.34021719452403</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2317124171866141</v>
       </c>
       <c r="Q10">
-        <v>2.059071583083124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2980489254722158</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.626058170840565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.465573356156227</v>
+        <v>1.453998206337531</v>
       </c>
       <c r="C11">
-        <v>0.2280573692335537</v>
+        <v>0.242814982574231</v>
       </c>
       <c r="D11">
-        <v>0.1327653924896168</v>
+        <v>0.15103501993066</v>
       </c>
       <c r="E11">
-        <v>0.04850042917974484</v>
+        <v>0.04930124982208373</v>
       </c>
       <c r="F11">
-        <v>0.6247278969278511</v>
+        <v>0.4767429536673475</v>
       </c>
       <c r="G11">
-        <v>0.0008124949800604933</v>
+        <v>0.05136440424389122</v>
       </c>
       <c r="H11">
-        <v>0.02169860775356369</v>
+        <v>0.02053934248684186</v>
       </c>
       <c r="I11">
-        <v>0.003899316891373239</v>
+        <v>0.002765730614749273</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4256775066670571</v>
+        <v>0.3188883068490789</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1362633231236856</v>
       </c>
       <c r="M11">
-        <v>1.432582618032427</v>
+        <v>0.1081701337510985</v>
       </c>
       <c r="N11">
-        <v>0.1417853970402518</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2707279252049162</v>
+        <v>1.471256515519798</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1501540244844293</v>
       </c>
       <c r="Q11">
-        <v>1.816810588985049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2705388952505032</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.328816806727048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.493311247741076</v>
+        <v>1.487769674294867</v>
       </c>
       <c r="C12">
-        <v>0.253985728525592</v>
+        <v>0.2646984655917919</v>
       </c>
       <c r="D12">
-        <v>0.1459473151956985</v>
+        <v>0.1684233341564862</v>
       </c>
       <c r="E12">
-        <v>0.04052007749196473</v>
+        <v>0.04225156915571548</v>
       </c>
       <c r="F12">
-        <v>0.5670494375727344</v>
+        <v>0.4175318181325522</v>
       </c>
       <c r="G12">
-        <v>0.0008121673854617819</v>
+        <v>0.07588344607731301</v>
       </c>
       <c r="H12">
-        <v>0.06058636638582726</v>
+        <v>0.05940982975040754</v>
       </c>
       <c r="I12">
-        <v>0.003806113201037853</v>
+        <v>0.002734787454607535</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3802363838154506</v>
+        <v>0.2815496052221942</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1235851210975127</v>
       </c>
       <c r="M12">
-        <v>1.510322522764312</v>
+        <v>0.09329954747039615</v>
       </c>
       <c r="N12">
-        <v>0.08737365344047276</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2399509963892257</v>
+        <v>1.541442920100934</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.09362574830678483</v>
       </c>
       <c r="Q12">
-        <v>1.625116717202587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2399946100196928</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.146461638167764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.476980436930887</v>
+        <v>1.475209356936915</v>
       </c>
       <c r="C13">
-        <v>0.2768023652386944</v>
+        <v>0.2856699221938896</v>
       </c>
       <c r="D13">
-        <v>0.1560829212079256</v>
+        <v>0.1776556593135155</v>
       </c>
       <c r="E13">
-        <v>0.03948797562743467</v>
+        <v>0.04188429023352302</v>
       </c>
       <c r="F13">
-        <v>0.5087568688745208</v>
+        <v>0.3774559968805846</v>
       </c>
       <c r="G13">
-        <v>0.0008126579045600625</v>
+        <v>0.07024585425435248</v>
       </c>
       <c r="H13">
-        <v>0.1167241265385286</v>
+        <v>0.1154259020319728</v>
       </c>
       <c r="I13">
-        <v>0.004012748398285915</v>
+        <v>0.002806062866850922</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.342891291507442</v>
+        <v>0.2601510627752202</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1170266250150283</v>
       </c>
       <c r="M13">
-        <v>1.544178050782051</v>
+        <v>0.08364138382305875</v>
       </c>
       <c r="N13">
-        <v>0.04811947286816221</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2052705398808783</v>
+        <v>1.571696967101417</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.05327708138405285</v>
       </c>
       <c r="Q13">
-        <v>1.450684267922313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2054210757306372</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.036294664177191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.445314723597903</v>
+        <v>1.445182533735959</v>
       </c>
       <c r="C14">
-        <v>0.2919427062145559</v>
+        <v>0.3007034716813308</v>
       </c>
       <c r="D14">
-        <v>0.1619284469298066</v>
+        <v>0.1803640772741772</v>
       </c>
       <c r="E14">
-        <v>0.04287536955595961</v>
+        <v>0.04571868983633554</v>
       </c>
       <c r="F14">
-        <v>0.4677616187429692</v>
+        <v>0.3562863323721288</v>
       </c>
       <c r="G14">
-        <v>0.0008133718683380736</v>
+        <v>0.05378648580883194</v>
       </c>
       <c r="H14">
-        <v>0.1664158067348609</v>
+        <v>0.1649822582872531</v>
       </c>
       <c r="I14">
-        <v>0.004396582928332116</v>
+        <v>0.003013210523376664</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3207961905525245</v>
+        <v>0.2509104877789223</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1144349403724112</v>
       </c>
       <c r="M14">
-        <v>1.548317307308224</v>
+        <v>0.07891204353690284</v>
       </c>
       <c r="N14">
-        <v>0.02980559958398388</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1796516018394527</v>
+        <v>1.575056069743454</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03451839554928249</v>
       </c>
       <c r="Q14">
-        <v>1.33719337055193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1798214145984112</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.9850554872870987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.427830147097211</v>
+        <v>1.427689829704093</v>
       </c>
       <c r="C15">
-        <v>0.2948855316286085</v>
+        <v>0.3042980359217182</v>
       </c>
       <c r="D15">
-        <v>0.1626682528493006</v>
+        <v>0.17929119030903</v>
       </c>
       <c r="E15">
-        <v>0.04417681919286842</v>
+        <v>0.04719381443241666</v>
       </c>
       <c r="F15">
-        <v>0.456866730671095</v>
+        <v>0.3533389693229552</v>
       </c>
       <c r="G15">
-        <v>0.0008137360544704219</v>
+        <v>0.04544486338632936</v>
       </c>
       <c r="H15">
-        <v>0.1790886102630367</v>
+        <v>0.1775874222570479</v>
       </c>
       <c r="I15">
-        <v>0.004696267616060013</v>
+        <v>0.003240235013092452</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.3162064130545552</v>
+        <v>0.250351770068546</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1143841182392427</v>
       </c>
       <c r="M15">
-        <v>1.540017524219991</v>
+        <v>0.07832505577488291</v>
       </c>
       <c r="N15">
-        <v>0.02655101482025479</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1724466645959559</v>
+        <v>1.567342706684059</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.0312320454007935</v>
       </c>
       <c r="Q15">
-        <v>1.31021138282135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.172602391211484</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9810452425808904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.338437209862576</v>
+        <v>1.335068907757005</v>
       </c>
       <c r="C16">
-        <v>0.2809720850853097</v>
+        <v>0.2960137117594144</v>
       </c>
       <c r="D16">
-        <v>0.1541875086192306</v>
+        <v>0.1624481226023278</v>
       </c>
       <c r="E16">
-        <v>0.04298649334983207</v>
+        <v>0.04664780558434245</v>
       </c>
       <c r="F16">
-        <v>0.4525417829172369</v>
+        <v>0.3757038635278747</v>
       </c>
       <c r="G16">
-        <v>0.0008155595922024476</v>
+        <v>0.01769581158284161</v>
       </c>
       <c r="H16">
-        <v>0.1672482223279133</v>
+        <v>0.1653770063494022</v>
       </c>
       <c r="I16">
-        <v>0.005724368979019623</v>
+        <v>0.003793262235928019</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3241086322804936</v>
+        <v>0.2668682374535933</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1204307055264744</v>
       </c>
       <c r="M16">
-        <v>1.445152420354077</v>
+        <v>0.08359672975149124</v>
       </c>
       <c r="N16">
-        <v>0.02673098210140346</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1626267217677686</v>
+        <v>1.478892088207914</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.0320501444403547</v>
       </c>
       <c r="Q16">
-        <v>1.325395044651614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1626395004460122</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.065255946191783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.286794946596729</v>
+        <v>1.280870095677471</v>
       </c>
       <c r="C17">
-        <v>0.2621409535804275</v>
+        <v>0.2801878598685761</v>
       </c>
       <c r="D17">
-        <v>0.1445890368330254</v>
+        <v>0.1495013842361317</v>
       </c>
       <c r="E17">
-        <v>0.03959355447578261</v>
+        <v>0.04332512267439537</v>
       </c>
       <c r="F17">
-        <v>0.4707824190849195</v>
+        <v>0.4020300474207517</v>
       </c>
       <c r="G17">
-        <v>0.000816585172145789</v>
+        <v>0.01208195809453461</v>
       </c>
       <c r="H17">
-        <v>0.1299882580864846</v>
+        <v>0.1279008703434386</v>
       </c>
       <c r="I17">
-        <v>0.006357969080980297</v>
+        <v>0.004152001796579263</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3415073804484621</v>
+        <v>0.2847973681017155</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1271532584840092</v>
       </c>
       <c r="M17">
-        <v>1.370502612918727</v>
+        <v>0.08980464734684546</v>
       </c>
       <c r="N17">
-        <v>0.03501179395843579</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1683893592735402</v>
+        <v>1.408323932274897</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04116466335970159</v>
       </c>
       <c r="Q17">
-        <v>1.396306017717947</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1683113916794348</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.154188037301637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.262417840419857</v>
+        <v>1.253173559156096</v>
       </c>
       <c r="C18">
-        <v>0.2376729375577895</v>
+        <v>0.2577026220458691</v>
       </c>
       <c r="D18">
-        <v>0.1331066130518366</v>
+        <v>0.136993609675784</v>
       </c>
       <c r="E18">
-        <v>0.03764364484040272</v>
+        <v>0.04084802976866664</v>
       </c>
       <c r="F18">
-        <v>0.512982372076614</v>
+        <v>0.4421170652061193</v>
       </c>
       <c r="G18">
-        <v>0.0008169848778936044</v>
+        <v>0.01083746943679031</v>
       </c>
       <c r="H18">
-        <v>0.07724340021241005</v>
+        <v>0.07510082712362021</v>
       </c>
       <c r="I18">
-        <v>0.006318163223608231</v>
+        <v>0.003969510015013888</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3723166124970057</v>
+        <v>0.3105176866677795</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1367756841387688</v>
       </c>
       <c r="M18">
-        <v>1.304520284488348</v>
+        <v>0.09924466969523138</v>
       </c>
       <c r="N18">
-        <v>0.05904995053701612</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1891142173867806</v>
+        <v>1.346404564306852</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.06657144105080093</v>
       </c>
       <c r="Q18">
-        <v>1.533277805148757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1889346547460917</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.279691413384995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.259746419733403</v>
+        <v>1.246492338154127</v>
       </c>
       <c r="C19">
-        <v>0.2146604431362391</v>
+        <v>0.2358260916190886</v>
       </c>
       <c r="D19">
-        <v>0.1221010765575912</v>
+        <v>0.1261605080807158</v>
       </c>
       <c r="E19">
-        <v>0.04251083927659582</v>
+        <v>0.04455466672122199</v>
       </c>
       <c r="F19">
-        <v>0.5705231062005112</v>
+        <v>0.4912942347163778</v>
       </c>
       <c r="G19">
-        <v>0.0008168229336341869</v>
+        <v>0.01038405256040553</v>
       </c>
       <c r="H19">
-        <v>0.03152673499862857</v>
+        <v>0.02950763700830095</v>
       </c>
       <c r="I19">
-        <v>0.006282903759903924</v>
+        <v>0.004025083268601293</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4132802791817625</v>
+        <v>0.3423317326812558</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1485441439125186</v>
       </c>
       <c r="M19">
-        <v>1.253555190875147</v>
+        <v>0.11130414071906</v>
       </c>
       <c r="N19">
-        <v>0.1061014836489491</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2217883586405982</v>
+        <v>1.299634351433411</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1155805822416127</v>
       </c>
       <c r="Q19">
-        <v>1.714516712517295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2214812561740587</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.430574226952928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.321541076248906</v>
+        <v>1.301963021211577</v>
       </c>
       <c r="C20">
-        <v>0.1920638128982404</v>
+        <v>0.2126632072866386</v>
       </c>
       <c r="D20">
-        <v>0.1114124942721304</v>
+        <v>0.1182436086312961</v>
       </c>
       <c r="E20">
-        <v>0.06522681376902817</v>
+        <v>0.06456050132577928</v>
       </c>
       <c r="F20">
-        <v>0.6742697661868604</v>
+        <v>0.5674248472350314</v>
       </c>
       <c r="G20">
-        <v>0.0008150827887172065</v>
+        <v>0.01126925593857919</v>
       </c>
       <c r="H20">
-        <v>0.003541426218665045</v>
+        <v>0.002079869501210307</v>
       </c>
       <c r="I20">
-        <v>0.005262943028222722</v>
+        <v>0.003533052752837662</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4841206659126129</v>
+        <v>0.3898725617877261</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1645216357387049</v>
       </c>
       <c r="M20">
-        <v>1.241400323307062</v>
+        <v>0.1314837894467651</v>
       </c>
       <c r="N20">
-        <v>0.2141175452006081</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2872720148099788</v>
+        <v>1.292527677281811</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2268310526417423</v>
       </c>
       <c r="Q20">
-        <v>2.027900658335398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2867284649490074</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.651532376000858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.488168791328803</v>
+        <v>1.472711368188016</v>
       </c>
       <c r="C21">
-        <v>0.2040864908989164</v>
+        <v>0.2172589401865537</v>
       </c>
       <c r="D21">
-        <v>0.1203481799678414</v>
+        <v>0.1413052231501837</v>
       </c>
       <c r="E21">
-        <v>0.07207907369593869</v>
+        <v>0.07093984988659052</v>
       </c>
       <c r="F21">
-        <v>0.7180511843714541</v>
+        <v>0.5323537097283548</v>
       </c>
       <c r="G21">
-        <v>0.0008116028216064989</v>
+        <v>0.07226974086091786</v>
       </c>
       <c r="H21">
-        <v>0.001873414763400194</v>
+        <v>0.001033313064397579</v>
       </c>
       <c r="I21">
-        <v>0.003701189566156948</v>
+        <v>0.002849319625465974</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4944433664518257</v>
+        <v>0.3564378249822688</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1485454848662222</v>
       </c>
       <c r="M21">
-        <v>1.38761773344487</v>
+        <v>0.1243162035719401</v>
       </c>
       <c r="N21">
-        <v>0.2477685834478223</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3276909974102296</v>
+        <v>1.428466138606467</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2583298558792109</v>
       </c>
       <c r="Q21">
-        <v>2.110908412917524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3273492114659931</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.492814823963528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.597711973668765</v>
+        <v>1.586023948122403</v>
       </c>
       <c r="C22">
-        <v>0.21233729792948</v>
+        <v>0.2202818659634715</v>
       </c>
       <c r="D22">
-        <v>0.1265127868487639</v>
+        <v>0.1581259230415952</v>
       </c>
       <c r="E22">
-        <v>0.07526265015821387</v>
+        <v>0.07412192869922407</v>
       </c>
       <c r="F22">
-        <v>0.7449742679391207</v>
+        <v>0.5051837397615202</v>
       </c>
       <c r="G22">
-        <v>0.0008093982433215962</v>
+        <v>0.1608620624769657</v>
       </c>
       <c r="H22">
-        <v>0.001161391118635224</v>
+        <v>0.0006158187064236875</v>
       </c>
       <c r="I22">
-        <v>0.002648351963026485</v>
+        <v>0.002170951168589674</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4997979738455243</v>
+        <v>0.3328803700299368</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1383863970875421</v>
       </c>
       <c r="M22">
-        <v>1.484723584106575</v>
+        <v>0.1185090222760437</v>
       </c>
       <c r="N22">
-        <v>0.2637515376389672</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3514181091991517</v>
+        <v>1.51752032968912</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2725486158314254</v>
       </c>
       <c r="Q22">
-        <v>2.159436751443081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3512419266586022</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.379026006006939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.540433690647546</v>
+        <v>1.5254438187348</v>
       </c>
       <c r="C23">
-        <v>0.2071449690995166</v>
+        <v>0.2189006530004605</v>
       </c>
       <c r="D23">
-        <v>0.1229287778715857</v>
+        <v>0.1473292175546419</v>
       </c>
       <c r="E23">
-        <v>0.07373490956247863</v>
+        <v>0.07244235740073002</v>
       </c>
       <c r="F23">
-        <v>0.7327981624461586</v>
+        <v>0.5288461764767263</v>
       </c>
       <c r="G23">
-        <v>0.0008105560323966855</v>
+        <v>0.09516153458425691</v>
       </c>
       <c r="H23">
-        <v>0.001514302087402553</v>
+        <v>0.0008158424047594037</v>
       </c>
       <c r="I23">
-        <v>0.00285617894114587</v>
+        <v>0.00212741230855773</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4988142752056248</v>
+        <v>0.3505561725401449</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1453757999314274</v>
       </c>
       <c r="M23">
-        <v>1.431593198502696</v>
+        <v>0.1238336164717282</v>
       </c>
       <c r="N23">
-        <v>0.2549952944654734</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.338820261141251</v>
+        <v>1.470475200750514</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2650678866525453</v>
       </c>
       <c r="Q23">
-        <v>2.140672926990732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.338491691393962</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.467267479448338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.321609215399377</v>
+        <v>1.301513825849185</v>
       </c>
       <c r="C24">
-        <v>0.1889096814214781</v>
+        <v>0.209219908419513</v>
       </c>
       <c r="D24">
-        <v>0.1098493123815558</v>
+        <v>0.1165455160151012</v>
       </c>
       <c r="E24">
-        <v>0.06765230495982877</v>
+        <v>0.06676014736771307</v>
       </c>
       <c r="F24">
-        <v>0.6844011744240817</v>
+        <v>0.5765591946392732</v>
       </c>
       <c r="G24">
-        <v>0.0008150583849378942</v>
+        <v>0.01104844743294109</v>
       </c>
       <c r="H24">
-        <v>0.003331227928557112</v>
+        <v>0.001892709658533609</v>
       </c>
       <c r="I24">
-        <v>0.004713869324008968</v>
+        <v>0.002900716204275788</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4926283072637254</v>
+        <v>0.3968328714038805</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1671034442458037</v>
       </c>
       <c r="M24">
-        <v>1.232861361058866</v>
+        <v>0.1341111886084327</v>
       </c>
       <c r="N24">
-        <v>0.2222984355352793</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2910620483803612</v>
+        <v>1.284457382059941</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2353129474497138</v>
       </c>
       <c r="Q24">
-        <v>2.061658918698981</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2904949039119273</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.681120111229433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.085529385439713</v>
+        <v>1.072499412452885</v>
       </c>
       <c r="C25">
-        <v>0.1694517265257147</v>
+        <v>0.1855467066897774</v>
       </c>
       <c r="D25">
-        <v>0.09574184184767631</v>
+        <v>0.09831858509931379</v>
       </c>
       <c r="E25">
-        <v>0.06104207490195535</v>
+        <v>0.06178374544512089</v>
       </c>
       <c r="F25">
-        <v>0.6349706293873965</v>
+        <v>0.5431227978762365</v>
       </c>
       <c r="G25">
-        <v>0.0008201237968240884</v>
+        <v>0.01395242781043526</v>
       </c>
       <c r="H25">
-        <v>0.006222311050487039</v>
+        <v>0.003831201668361206</v>
       </c>
       <c r="I25">
-        <v>0.007830894591911886</v>
+        <v>0.004611193187503915</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.487276878835587</v>
+        <v>0.401316325189768</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1759963113653562</v>
       </c>
       <c r="M25">
-        <v>1.019027714435111</v>
+        <v>0.1275111664034014</v>
       </c>
       <c r="N25">
-        <v>0.1871938673666875</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2396408868365256</v>
+        <v>1.064356076462246</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1996943030954199</v>
       </c>
       <c r="Q25">
-        <v>1.984401554532042</v>
+        <v>0.2393723449722494</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.648659061246832</v>
       </c>
     </row>
   </sheetData>
